--- a/biology/Mycologie/Boletus_impolitus/Boletus_impolitus.xlsx
+++ b/biology/Mycologie/Boletus_impolitus/Boletus_impolitus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemileccinum impolitum
 Hemileccinum impolitum, le Bolet dépoli ou Bolet feutré, anciennement Boletus impolitus, est une espèce de champignon (Fungi) basidiomycète du genre Hemileccinum dans la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau pâle et son odeur iodée en grattant la base du pied.
@@ -512,61 +524,239 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hemileccinum impolitum (Fr.) Šutara, 2008[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus impolitus Fr., 1838[1].
-Synonymes
-Hemileccinum impolitum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hemileccinum impolitum (Fr.) Šutara, 2008.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus impolitus Fr., 1838.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hemileccinum impolitum a pour synonymes :
 Boletus impolitus Fr., 1838
 Leccinum impolitum (Fr.) Bertault, 1980
 Tubiporus impolitus (Fr.) P. Karst., 1882
 Versipellis fragrans var. impolita (Fr.) Quél., 1886
 Versipellis impolita (Fr.) Quél., 1886
-Xerocomus impolitus (Fr.) Quél., 1888
-Étymologie
-Du Latin impolitus : qui n'est pas lisse, mais légèrement rugueux, feutré, ou sans éclat, sans lustre, qui est mat[2].
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet dépoli[3].
+Xerocomus impolitus (Fr.) Quél., 1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du Latin impolitus : qui n'est pas lisse, mais légèrement rugueux, feutré, ou sans éclat, sans lustre, qui est mat.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Boletus_impolitus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Boletus_impolitus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet dépoli.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Hemileccinum impolitum, le Bolet dépoli, sont les suivantes :
-Chapeau : 7-12 (18) cm, longtemps hémisphérique-convexe, puis étalé et plus ou moins lobé à la fin, rarement bosselé. Cuticule mate et remarquablement filamenteuse sous la loupe, à feutrage dense, imbriqué et apprimé, souvent condensé en très fines méchules aranéuses, de couleur terne et assez variable, typiquement gris-beige, gris-verdâtre, rarement rosâtre à brun-violacé ou bai. Marge typiquement anguleuse-tranchante chez le jeune, puis un peu arrondie à la croissance complète des tubes. Marginelle variable, généralement peu développée[4],[5],[6].
-Tubes sublibres, de longueur moyenne, dépassant rarement l'épaisseur de la chair à mi-rayon, jaune assez clair puis jaune verdâtre, enfin olivâtre, non bleuissants à la coupe. Pores concolores aux tubes, roussissant parfois légèrement avec l'âge ou les intempéries, ouverts dès le début, fins (0,5 à 1 mm), légèrement polygonaux à maturité, non composés[7],[6],[8].
-Stipe cylindracé, parfois un peu renflé vers le milieu, robuste mais non obèse à maturité, court ou long, non sinueux, à base arrondie, rarement terminée par une courte pointe. Surface rugueuse-granuleuse ou seulement floconneuse, jaune en haut, blanchâtre-rosâtre ailleurs, avec une zone annulaire rougeâtre-vineux, souvent discrète, vers le haut. Base parfois piquetée de rougeâtre, rarement envahie de rouge-vineux jusqu'à mi-pied[9],[8],[10].
-Chair ferme, presque blanche ou jaune très clair, jaune plus foncé sous les tubes, en haut du pied et parfois aussi à l'extrême base, non bleuissante (sauf rares exceptions). Base du pied souvent colorée de rougeâtre, plus rarement les morsures. Réactions macro-chimiques nulles. Saveur douce, à peine acidulée, odeur nettement iodée, principalement dans le pied[10],[11].
-Réactions chimiques
-Chapeau virant temporairement au violacé sombre aux vapeurs de NH3.
-Caractéristiques microscopiques
-Spores 11-16 x 4,5-6 µm, de forme bolétoïde, sporée olivâtre. Pleurocystides peu abondantes, de longueur variable, étroites, à col progressivement atténué, ou plus moins longuement lagéniformes. Cuticule filamenteuse[10],[9],[12].
+Chapeau : 7-12 (18) cm, longtemps hémisphérique-convexe, puis étalé et plus ou moins lobé à la fin, rarement bosselé. Cuticule mate et remarquablement filamenteuse sous la loupe, à feutrage dense, imbriqué et apprimé, souvent condensé en très fines méchules aranéuses, de couleur terne et assez variable, typiquement gris-beige, gris-verdâtre, rarement rosâtre à brun-violacé ou bai. Marge typiquement anguleuse-tranchante chez le jeune, puis un peu arrondie à la croissance complète des tubes. Marginelle variable, généralement peu développée.
+Tubes sublibres, de longueur moyenne, dépassant rarement l'épaisseur de la chair à mi-rayon, jaune assez clair puis jaune verdâtre, enfin olivâtre, non bleuissants à la coupe. Pores concolores aux tubes, roussissant parfois légèrement avec l'âge ou les intempéries, ouverts dès le début, fins (0,5 à 1 mm), légèrement polygonaux à maturité, non composés.
+Stipe cylindracé, parfois un peu renflé vers le milieu, robuste mais non obèse à maturité, court ou long, non sinueux, à base arrondie, rarement terminée par une courte pointe. Surface rugueuse-granuleuse ou seulement floconneuse, jaune en haut, blanchâtre-rosâtre ailleurs, avec une zone annulaire rougeâtre-vineux, souvent discrète, vers le haut. Base parfois piquetée de rougeâtre, rarement envahie de rouge-vineux jusqu'à mi-pied.
+Chair ferme, presque blanche ou jaune très clair, jaune plus foncé sous les tubes, en haut du pied et parfois aussi à l'extrême base, non bleuissante (sauf rares exceptions). Base du pied souvent colorée de rougeâtre, plus rarement les morsures. Réactions macro-chimiques nulles. Saveur douce, à peine acidulée, odeur nettement iodée, principalement dans le pied,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapeau virant temporairement au violacé sombre aux vapeurs de NH3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_impolitus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spores 11-16 x 4,5-6 µm, de forme bolétoïde, sporée olivâtre. Pleurocystides peu abondantes, de longueur variable, étroites, à col progressivement atténué, ou plus moins longuement lagéniformes. Cuticule filamenteuse.
 </t>
         </is>
       </c>
